--- a/Excel/Day2.xlsx
+++ b/Excel/Day2.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Analysis\Excel\"/>
@@ -583,9 +583,6 @@
     <t>find the Category of the product with Product ID "P001".</t>
   </si>
   <si>
-    <t>find the Price for Product ID entered in a different row (e.g., Product IDs listed in Row 12).</t>
-  </si>
-  <si>
     <t>Hlookup values</t>
   </si>
   <si>
@@ -788,6 +785,9 @@
   </si>
   <si>
     <t>5. Create a Pivot Table to show total sales for each Product within each Product Category.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -1006,18 +1006,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1031,6 +1019,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1040,7 +1040,26 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="81">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1075,120 +1094,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FF00B050"/>
@@ -1210,9 +1115,6 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1232,9 +1134,6 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1254,9 +1153,6 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1276,9 +1172,6 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1298,9 +1191,6 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1320,9 +1210,6 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1342,9 +1229,6 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1357,70 +1241,18 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1444,6 +1276,139 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FF00B050"/>
@@ -1458,139 +1423,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FF00B050"/>
@@ -1769,6 +1601,702 @@
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1781,6 +2309,1138 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Day2.xlsx]day3!PivotTable3</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'day3'!$M$5:$M$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Canada</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'day3'!$L$7:$L$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Electronics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Furniture</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'day3'!$M$7:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>360</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-583B-4AE9-A7ED-9BCD561BB912}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'day3'!$N$5:$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Germany</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'day3'!$L$7:$L$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Electronics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Furniture</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'day3'!$N$7:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-583B-4AE9-A7ED-9BCD561BB912}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'day3'!$O$5:$O$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'day3'!$L$7:$L$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Electronics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Furniture</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'day3'!$O$7:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>11800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-583B-4AE9-A7ED-9BCD561BB912}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'day3'!$P$5:$P$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'day3'!$L$7:$L$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Electronics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Furniture</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'day3'!$P$7:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3170</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3880</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-583B-4AE9-A7ED-9BCD561BB912}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="656121839"/>
+        <c:axId val="777395343"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="656121839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="777395343"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="777395343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="656121839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2231,8 +3891,192 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="L15:M19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="K47:M52" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item h="1" x="1"/>
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="15" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Max of Total Sales" fld="7" subtotal="max" baseField="9" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="36">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="37">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="38">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L35:M40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="4"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="15" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Unit Price" fld="6" subtotal="average" baseField="2" baseItem="0"/>
+  </dataFields>
+  <formats count="9">
+    <format dxfId="47">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="46">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="45">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="44">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="43">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="42">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="41">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="40">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="39">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+  <location ref="L24:M28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -2297,38 +4141,58 @@
     <dataField name="Sum of Quantity" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="8">
+    <format dxfId="56">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="55">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="54">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="49">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
+  <chartFormats count="2">
+    <chartFormat chart="7" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -2338,8 +4202,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="L5:Q10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -2409,51 +4273,101 @@
     <dataField name="Sum of Total Sales" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="12">
-    <format dxfId="20">
+    <format dxfId="68">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="67">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="66">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="65">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="64">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="63">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="58">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
+  <chartFormats count="4">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -2463,9 +4377,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="T15:U28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="T42:U55" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -2550,38 +4464,38 @@
     <dataField name="Sum of Total Sales" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="12">
-    <format dxfId="32">
+    <format dxfId="80">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="79">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="78">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="77">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="76">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="75">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="74">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="73">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="71">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -2590,7 +4504,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="70">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -2599,7 +4513,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -2607,190 +4521,6 @@
           </reference>
         </references>
       </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="T5:V10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item h="1" x="1"/>
-        <item x="0"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="15" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="9"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Max of Total Sales" fld="7" subtotal="max" baseField="9" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="35">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="34">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="33">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="L24:M29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="10">
-        <item x="4"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="15" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Unit Price" fld="6" subtotal="average" baseField="2" baseItem="0"/>
-  </dataFields>
-  <formats count="9">
-    <format dxfId="44">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="43">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="42">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="41">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="40">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="39">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="38">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="37">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="36">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -3608,8 +5338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16:S16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16:Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3817,180 +5547,180 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="21">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="S9" s="36"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="S9" s="32"/>
     </row>
     <row r="10" spans="1:19" ht="27" customHeight="1">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="14">
         <f>VLOOKUP(B5,B2:G6,6,FALSE)</f>
         <v>150</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="K10" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34">
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30">
         <f>HLOOKUP(F1,B1:F6,3,FALSE)</f>
         <v>220</v>
       </c>
-      <c r="S10" s="34"/>
+      <c r="S10" s="30"/>
     </row>
     <row r="11" spans="1:19" ht="27" customHeight="1">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="14" t="str">
         <f>VLOOKUP(A3,A2:D6,4,FALSE)</f>
         <v>$600</v>
       </c>
-      <c r="K11" s="34" t="s">
+      <c r="K11" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34" t="str">
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30" t="str">
         <f>HLOOKUP(D1,A1:D6,2,FALSE)</f>
         <v>$800</v>
       </c>
-      <c r="S11" s="34"/>
+      <c r="S11" s="30"/>
     </row>
     <row r="12" spans="1:19" ht="26.25" customHeight="1">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="14" t="str">
         <f>VLOOKUP(A6,A2:C6,3,FALSE)</f>
         <v>Electronics</v>
       </c>
-      <c r="K12" s="34" t="s">
+      <c r="K12" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34">
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30">
         <f>HLOOKUP(H1,B1:H6,4,FALSE)</f>
         <v>140</v>
       </c>
-      <c r="S12" s="34"/>
+      <c r="S12" s="30"/>
     </row>
     <row r="13" spans="1:19" ht="23.25" customHeight="1">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
       <c r="H13" s="14" t="str">
         <f>VLOOKUP(A4,A2:D6,4,FALSE)</f>
         <v>$150</v>
       </c>
-      <c r="K13" s="34" t="s">
+      <c r="K13" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34" t="str">
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30" t="str">
         <f>HLOOKUP(B1,A1:B6,3,FALSE)</f>
         <v>Smartphone</v>
       </c>
-      <c r="S13" s="34"/>
+      <c r="S13" s="30"/>
     </row>
     <row r="14" spans="1:19" ht="27.75" customHeight="1">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="14" t="str">
         <f>VLOOKUP(B6,B2:I6,8,FALSE)</f>
         <v>E</v>
       </c>
-      <c r="K14" s="34" t="s">
+      <c r="K14" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34" t="str">
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30" t="str">
         <f>HLOOKUP(I1,A1:I6,3,FALSE)</f>
         <v>B</v>
       </c>
-      <c r="S14" s="34"/>
+      <c r="S14" s="30"/>
     </row>
     <row r="15" spans="1:19" ht="34.5" customHeight="1">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
       <c r="H15" s="14">
         <f>IFERROR(VLOOKUP(A6,A2:J6,10,FALSE),"Not Found")</f>
         <v>395</v>
@@ -3998,45 +5728,43 @@
       <c r="I15" t="s">
         <v>60</v>
       </c>
-      <c r="K15" s="34" t="s">
+      <c r="K15" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34" t="str">
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30" t="str">
         <f>HLOOKUP(C1,A1:C6,2,FALSE)</f>
         <v>Electronics</v>
       </c>
-      <c r="S15" s="34"/>
+      <c r="S15" s="30"/>
     </row>
     <row r="16" spans="1:19" ht="27" customHeight="1">
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
       <c r="H16" s="14" t="str">
         <f>IFERROR(VLOOKUP(I15,A2:D6,4,FALSE),"Product Not Found")</f>
         <v>$120</v>
       </c>
-      <c r="K16" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="9"/>
@@ -4084,6 +5812,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
     <mergeCell ref="K15:Q15"/>
     <mergeCell ref="K16:Q16"/>
     <mergeCell ref="R9:S9"/>
@@ -4100,14 +5836,6 @@
     <mergeCell ref="K12:Q12"/>
     <mergeCell ref="K13:Q13"/>
     <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4116,10 +5844,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z31"/>
+  <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView tabSelected="1" topLeftCell="J8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4154,47 +5882,47 @@
     <col min="31" max="31" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:18">
       <c r="A1" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>100</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>22</v>
       </c>
       <c r="I1" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1">
+    </row>
+    <row r="2" spans="1:18" ht="15" customHeight="1">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>51</v>
@@ -4215,41 +5943,32 @@
         <v>45292</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M2" s="38"/>
       <c r="N2" s="38"/>
       <c r="O2" s="38"/>
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
-      <c r="T2" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-    </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1">
+    </row>
+    <row r="3" spans="1:18" ht="15" customHeight="1">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F3" s="1">
         <v>5</v>
@@ -4264,7 +5983,7 @@
         <v>45293</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
@@ -4272,29 +5991,22 @@
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-    </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1">
+    </row>
+    <row r="4" spans="1:18" ht="15" customHeight="1">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -4309,7 +6021,7 @@
         <v>45294</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
@@ -4317,29 +6029,22 @@
       <c r="O4" s="38"/>
       <c r="P4" s="38"/>
       <c r="Q4" s="38"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-    </row>
-    <row r="5" spans="1:26">
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>1004</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="F5" s="1">
         <v>10</v>
@@ -4354,35 +6059,31 @@
         <v>45295</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N5" s="18"/>
       <c r="O5" s="18"/>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
-      <c r="T5" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="U5" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="V5" s="18"/>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="R5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>1005</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>51</v>
@@ -4403,51 +6104,42 @@
         <v>45296</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O6" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P6" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="T6" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="U6" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="V6" s="18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>1006</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F7" s="1">
         <v>4</v>
@@ -4462,10 +6154,10 @@
         <v>45297</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M7" s="20">
         <v>1300</v>
@@ -4480,31 +6172,22 @@
       <c r="Q7" s="20">
         <v>4550</v>
       </c>
-      <c r="T7" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="U7" s="20">
-        <v>3000</v>
-      </c>
-      <c r="V7" s="20">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>1007</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="F8" s="1">
         <v>2</v>
@@ -4519,7 +6202,7 @@
         <v>45298</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L8" s="19" t="s">
         <v>51</v>
@@ -4539,31 +6222,22 @@
       <c r="Q8" s="20">
         <v>33600</v>
       </c>
-      <c r="T8" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="U8" s="20">
-        <v>4200</v>
-      </c>
-      <c r="V8" s="20">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>1008</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F9" s="1">
         <v>7</v>
@@ -4578,7 +6252,7 @@
         <v>45299</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L9" s="19" t="s">
         <v>58</v>
@@ -4596,31 +6270,22 @@
       <c r="Q9" s="20">
         <v>5340</v>
       </c>
-      <c r="T9" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="U9" s="20">
-        <v>5000</v>
-      </c>
-      <c r="V9" s="20">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>1009</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -4635,10 +6300,10 @@
         <v>45300</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L10" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M10" s="24">
         <v>5560</v>
@@ -4655,31 +6320,22 @@
       <c r="Q10" s="24">
         <v>43490</v>
       </c>
-      <c r="T10" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="U10" s="24">
-        <v>5000</v>
-      </c>
-      <c r="V10" s="24">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>1010</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="F11" s="1">
         <v>8</v>
@@ -4694,24 +6350,24 @@
         <v>45301</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>1011</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F12" s="1">
         <v>6</v>
@@ -4726,41 +6382,24 @@
         <v>45302</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L12" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="T12" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
-    </row>
-    <row r="13" spans="1:26">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>1012</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -4775,31 +6414,18 @@
         <v>45303</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
-    </row>
-    <row r="14" spans="1:26">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>1013</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>51</v>
@@ -4820,37 +6446,24 @@
         <v>45304</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="39"/>
-    </row>
-    <row r="15" spans="1:26">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>1014</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F15" s="1">
         <v>6</v>
@@ -4865,36 +6478,24 @@
         <v>45305</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="M15" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="T15" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="U15" s="22" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>1015</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F16" s="1">
         <v>5</v>
@@ -4909,36 +6510,24 @@
         <v>45306</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L16" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="M16" s="20">
-        <v>46</v>
-      </c>
-      <c r="T16" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="U16" s="20">
-        <v>4550</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>1016</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F17" s="1">
         <v>2</v>
@@ -4953,36 +6542,24 @@
         <v>45307</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="M17" s="20">
-        <v>49</v>
-      </c>
-      <c r="T17" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="U17" s="20">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>1017</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F18" s="1">
         <v>4</v>
@@ -4997,36 +6574,24 @@
         <v>45308</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L18" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M18" s="20">
-        <v>35</v>
-      </c>
-      <c r="T18" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="U18" s="20">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>1018</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F19" s="1">
         <v>3</v>
@@ -5041,36 +6606,24 @@
         <v>45309</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="M19" s="24">
-        <v>130</v>
-      </c>
-      <c r="T19" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="U19" s="20">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>1019</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F20" s="1">
         <v>2</v>
@@ -5085,30 +6638,24 @@
         <v>45310</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="T20" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="U20" s="20">
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>1020</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -5123,32 +6670,26 @@
         <v>45311</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L21" s="38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M21" s="39"/>
       <c r="N21" s="39"/>
       <c r="O21" s="39"/>
       <c r="P21" s="39"/>
       <c r="Q21" s="39"/>
-      <c r="T21" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="U21" s="20">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>1021</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>51</v>
@@ -5169,7 +6710,7 @@
         <v>45312</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L22" s="39"/>
       <c r="M22" s="39"/>
@@ -5177,28 +6718,22 @@
       <c r="O22" s="39"/>
       <c r="P22" s="39"/>
       <c r="Q22" s="39"/>
-      <c r="T22" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="U22" s="20">
-        <v>14400</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>1022</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F23" s="1">
         <v>6</v>
@@ -5213,7 +6748,7 @@
         <v>45313</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L23" s="39"/>
       <c r="M23" s="39"/>
@@ -5221,28 +6756,22 @@
       <c r="O23" s="39"/>
       <c r="P23" s="39"/>
       <c r="Q23" s="39"/>
-      <c r="T23" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="U23" s="20">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>1023</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F24" s="1">
         <v>5</v>
@@ -5257,36 +6786,30 @@
         <v>45314</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L24" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M24" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="T24" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="U24" s="20">
-        <v>5340</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>1024</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F25" s="1">
         <v>2</v>
@@ -5301,36 +6824,30 @@
         <v>45315</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M25" s="20">
-        <v>234</v>
-      </c>
-      <c r="T25" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="U25" s="20">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
         <v>1025</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F26" s="1">
         <v>7</v>
@@ -5345,36 +6862,30 @@
         <v>45316</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L26" s="19" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="M26" s="20">
-        <v>770</v>
-      </c>
-      <c r="T26" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="U26" s="20">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
         <v>1026</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F27" s="1">
         <v>8</v>
@@ -5389,36 +6900,30 @@
         <v>45317</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L27" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M27" s="20">
-        <v>564</v>
-      </c>
-      <c r="T27" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="U27" s="20">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
         <v>1027</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F28" s="1">
         <v>3</v>
@@ -5433,36 +6938,30 @@
         <v>45318</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L28" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="M28" s="20">
-        <v>316.25</v>
-      </c>
-      <c r="T28" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="U28" s="24">
-        <v>43490</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
+        <v>115</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="M28" s="24">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1">
         <v>1028</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="F29" s="1">
         <v>4</v>
@@ -5477,24 +6976,18 @@
         <v>45319</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L29" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="M29" s="24">
-        <v>404.33333333333331</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
         <v>1029</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>51</v>
@@ -5515,24 +7008,24 @@
         <v>45320</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1">
         <v>1030</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F31" s="1">
         <v>10</v>
@@ -5547,18 +7040,305 @@
         <v>45321</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="L32" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+    </row>
+    <row r="33" spans="11:26">
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+    </row>
+    <row r="34" spans="11:26">
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+    </row>
+    <row r="35" spans="11:26">
+      <c r="L35" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="M35" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="11:26">
+      <c r="L36" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="M36" s="20">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="11:26">
+      <c r="L37" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="M37" s="20">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="38" spans="11:26">
+      <c r="L38" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="M38" s="20">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="39" spans="11:26">
+      <c r="L39" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="M39" s="20">
+        <v>316.25</v>
+      </c>
+      <c r="T39" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="U39" s="39"/>
+      <c r="V39" s="39"/>
+      <c r="W39" s="39"/>
+      <c r="X39" s="39"/>
+      <c r="Y39" s="39"/>
+      <c r="Z39" s="39"/>
+    </row>
+    <row r="40" spans="11:26">
+      <c r="L40" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="M40" s="24">
+        <v>404.33333333333331</v>
+      </c>
+      <c r="T40" s="39"/>
+      <c r="U40" s="39"/>
+      <c r="V40" s="39"/>
+      <c r="W40" s="39"/>
+      <c r="X40" s="39"/>
+      <c r="Y40" s="39"/>
+      <c r="Z40" s="39"/>
+    </row>
+    <row r="41" spans="11:26">
+      <c r="T41" s="39"/>
+      <c r="U41" s="39"/>
+      <c r="V41" s="39"/>
+      <c r="W41" s="39"/>
+      <c r="X41" s="39"/>
+      <c r="Y41" s="39"/>
+      <c r="Z41" s="39"/>
+    </row>
+    <row r="42" spans="11:26">
+      <c r="T42" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="U42" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="11:26">
+      <c r="T43" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="U43" s="20">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="44" spans="11:26">
+      <c r="K44" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="39"/>
+      <c r="T44" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="U44" s="20">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="45" spans="11:26">
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="39"/>
+      <c r="T45" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="U45" s="20">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="46" spans="11:26">
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="39"/>
+      <c r="T46" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="U46" s="20">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="47" spans="11:26">
+      <c r="K47" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="L47" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="M47" s="18"/>
+      <c r="T47" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="U47" s="20">
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="48" spans="11:26">
+      <c r="K48" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="L48" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M48" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="T48" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="U48" s="20">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="49" spans="11:21">
+      <c r="K49" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="L49" s="20">
+        <v>3000</v>
+      </c>
+      <c r="M49" s="20">
+        <v>3000</v>
+      </c>
+      <c r="T49" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="U49" s="20">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="50" spans="11:21">
+      <c r="K50" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="L50" s="20">
+        <v>4200</v>
+      </c>
+      <c r="M50" s="20">
+        <v>4200</v>
+      </c>
+      <c r="T50" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="U50" s="20">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="51" spans="11:21">
+      <c r="K51" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="L51" s="20">
+        <v>5000</v>
+      </c>
+      <c r="M51" s="20">
+        <v>5000</v>
+      </c>
+      <c r="T51" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="U51" s="20">
+        <v>5340</v>
+      </c>
+    </row>
+    <row r="52" spans="11:21">
+      <c r="K52" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="L52" s="24">
+        <v>5000</v>
+      </c>
+      <c r="M52" s="24">
+        <v>5000</v>
+      </c>
+      <c r="T52" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="U52" s="20">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="53" spans="11:21">
+      <c r="T53" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="U53" s="20">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="54" spans="11:21">
+      <c r="T54" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="U54" s="20">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="55" spans="11:21">
+      <c r="T55" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="U55" s="24">
+        <v>43490</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="L2:Q4"/>
-    <mergeCell ref="L12:Q14"/>
     <mergeCell ref="L21:Q23"/>
-    <mergeCell ref="T2:Z4"/>
-    <mergeCell ref="T12:Z14"/>
+    <mergeCell ref="L32:Q34"/>
+    <mergeCell ref="K44:Q46"/>
+    <mergeCell ref="T39:Z41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/Excel/Day2.xlsx
+++ b/Excel/Day2.xlsx
@@ -1006,6 +1006,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1019,18 +1031,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1040,26 +1040,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="81">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
+  <dxfs count="45">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1092,515 +1073,6 @@
           <color indexed="64"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -3951,13 +3423,13 @@
     <dataField name="Max of Total Sales" fld="7" subtotal="max" baseField="9" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="36">
+    <format dxfId="2">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="1">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4033,35 +3505,35 @@
     <dataField name="Average of Unit Price" fld="6" subtotal="average" baseField="2" baseItem="0"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="47">
+    <format dxfId="11">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="9">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="7">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -4141,35 +3613,35 @@
     <dataField name="Sum of Quantity" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="56">
+    <format dxfId="20">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="18">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="13">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4273,48 +3745,48 @@
     <dataField name="Sum of Total Sales" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="12">
-    <format dxfId="68">
+    <format dxfId="32">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="67">
+    <format dxfId="31">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="30">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="65">
+    <format dxfId="29">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="28">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="27">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="22">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4464,38 +3936,38 @@
     <dataField name="Sum of Total Sales" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="12">
-    <format dxfId="80">
+    <format dxfId="44">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="79">
+    <format dxfId="43">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="78">
+    <format dxfId="42">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="77">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="76">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="75">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="74">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="73">
+    <format dxfId="37">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="71">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -4504,7 +3976,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="70">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -4513,7 +3985,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="69">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -5547,180 +5019,180 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="21">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="33" t="s">
+      <c r="K9" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32" t="s">
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="S9" s="32"/>
+      <c r="S9" s="36"/>
     </row>
     <row r="10" spans="1:19" ht="27" customHeight="1">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
       <c r="H10" s="14">
         <f>VLOOKUP(B5,B2:G6,6,FALSE)</f>
         <v>150</v>
       </c>
-      <c r="K10" s="30" t="s">
+      <c r="K10" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30">
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34">
         <f>HLOOKUP(F1,B1:F6,3,FALSE)</f>
         <v>220</v>
       </c>
-      <c r="S10" s="30"/>
+      <c r="S10" s="34"/>
     </row>
     <row r="11" spans="1:19" ht="27" customHeight="1">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
       <c r="H11" s="14" t="str">
         <f>VLOOKUP(A3,A2:D6,4,FALSE)</f>
         <v>$600</v>
       </c>
-      <c r="K11" s="30" t="s">
+      <c r="K11" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30" t="str">
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34" t="str">
         <f>HLOOKUP(D1,A1:D6,2,FALSE)</f>
         <v>$800</v>
       </c>
-      <c r="S11" s="30"/>
+      <c r="S11" s="34"/>
     </row>
     <row r="12" spans="1:19" ht="26.25" customHeight="1">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
       <c r="H12" s="14" t="str">
         <f>VLOOKUP(A6,A2:C6,3,FALSE)</f>
         <v>Electronics</v>
       </c>
-      <c r="K12" s="30" t="s">
+      <c r="K12" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30">
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34">
         <f>HLOOKUP(H1,B1:H6,4,FALSE)</f>
         <v>140</v>
       </c>
-      <c r="S12" s="30"/>
+      <c r="S12" s="34"/>
     </row>
     <row r="13" spans="1:19" ht="23.25" customHeight="1">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
       <c r="H13" s="14" t="str">
         <f>VLOOKUP(A4,A2:D6,4,FALSE)</f>
         <v>$150</v>
       </c>
-      <c r="K13" s="30" t="s">
+      <c r="K13" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30" t="str">
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34" t="str">
         <f>HLOOKUP(B1,A1:B6,3,FALSE)</f>
         <v>Smartphone</v>
       </c>
-      <c r="S13" s="30"/>
+      <c r="S13" s="34"/>
     </row>
     <row r="14" spans="1:19" ht="27.75" customHeight="1">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
       <c r="H14" s="14" t="str">
         <f>VLOOKUP(B6,B2:I6,8,FALSE)</f>
         <v>E</v>
       </c>
-      <c r="K14" s="30" t="s">
+      <c r="K14" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30" t="str">
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34" t="str">
         <f>HLOOKUP(I1,A1:I6,3,FALSE)</f>
         <v>B</v>
       </c>
-      <c r="S14" s="30"/>
+      <c r="S14" s="34"/>
     </row>
     <row r="15" spans="1:19" ht="34.5" customHeight="1">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="14">
         <f>IFERROR(VLOOKUP(A6,A2:J6,10,FALSE),"Not Found")</f>
         <v>395</v>
@@ -5728,43 +5200,43 @@
       <c r="I15" t="s">
         <v>60</v>
       </c>
-      <c r="K15" s="30" t="s">
+      <c r="K15" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30" t="str">
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34" t="str">
         <f>HLOOKUP(C1,A1:C6,2,FALSE)</f>
         <v>Electronics</v>
       </c>
-      <c r="S15" s="30"/>
+      <c r="S15" s="34"/>
     </row>
     <row r="16" spans="1:19" ht="27" customHeight="1">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="14" t="str">
         <f>IFERROR(VLOOKUP(I15,A2:D6,4,FALSE),"Product Not Found")</f>
         <v>$120</v>
       </c>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="9"/>
@@ -5812,14 +5284,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
     <mergeCell ref="K15:Q15"/>
     <mergeCell ref="K16:Q16"/>
     <mergeCell ref="R9:S9"/>
@@ -5836,6 +5300,14 @@
     <mergeCell ref="K12:Q12"/>
     <mergeCell ref="K13:Q13"/>
     <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
